--- a/Planung/04_Resultate/Projektmanagement_Resultate.xlsx
+++ b/Planung/04_Resultate/Projektmanagement_Resultate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>Projektmanagement</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Gesamt Total</t>
   </si>
   <si>
-    <t>Schätzung Meilenstein Schlusspräsentation</t>
-  </si>
-  <si>
     <t>Klassendiagramm</t>
   </si>
   <si>
@@ -166,6 +163,15 @@
   </si>
   <si>
     <t>alle</t>
+  </si>
+  <si>
+    <t>SS FB</t>
+  </si>
+  <si>
+    <t>Abschlusspräsentation</t>
+  </si>
+  <si>
+    <t>Bis und mit Meilenstein Schlusspräsentation</t>
   </si>
 </sst>
 </file>
@@ -261,7 +267,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -269,6 +275,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -292,7 +302,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="23">
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
@@ -301,6 +311,8 @@
     <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Link" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
@@ -310,6 +322,8 @@
     <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Schlecht" xfId="6" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -355,7 +369,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle26" displayName="Tabelle26" ref="A53:D59" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle26" displayName="Tabelle26" ref="A53:D60" headerRowCount="0">
   <tableColumns count="4">
     <tableColumn id="1" name="Spalte1" totalsRowLabel="Ergebnis"/>
     <tableColumn id="2" name="Spalte2"/>
@@ -688,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1091,7 +1105,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>26</v>
@@ -1147,7 +1161,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>23</v>
@@ -1175,7 +1189,7 @@
     </row>
     <row r="52" spans="1:4" ht="20">
       <c r="A52" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1209,12 +1223,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="20">
+    <row r="55" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
@@ -1225,10 +1239,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C56" s="3">
         <v>15</v>
@@ -1242,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C57" s="3">
         <v>3</v>
@@ -1253,10 +1267,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58" s="3">
         <v>5</v>
@@ -1267,10 +1281,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1279,32 +1293,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="4" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="3">
+        <v>3</v>
+      </c>
+      <c r="D60" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4">
-        <f>SUM(C54:C60)</f>
-        <v>30</v>
-      </c>
-      <c r="D61" s="4">
-        <f>SUM(D54:D60)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="6" t="s">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4">
+        <f>SUM(C54:C61)</f>
+        <v>33</v>
+      </c>
+      <c r="D62" s="4">
+        <f>SUM(D54:D61)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6">
-        <f>SUM(C49,C35,C19,C61)</f>
-        <v>90.5</v>
-      </c>
-      <c r="D64" s="6">
-        <f>SUM(D49,D35,D19,D61)</f>
-        <v>88.5</v>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6">
+        <f>SUM(C49,C35,C19,C62)</f>
+        <v>93.5</v>
+      </c>
+      <c r="D65" s="6">
+        <f>SUM(D49,D35,D19,D62)</f>
+        <v>91.5</v>
       </c>
     </row>
   </sheetData>
